--- a/datasheets/Lecuyer_et_al_2003.xlsx
+++ b/datasheets/Lecuyer_et_al_2003.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="126">
   <si>
     <t xml:space="preserve">Collection number</t>
   </si>
@@ -127,6 +127,9 @@
     <t xml:space="preserve">DOI</t>
   </si>
   <si>
+    <t xml:space="preserve">refShort</t>
+  </si>
+  <si>
     <t xml:space="preserve">JC1e</t>
   </si>
   <si>
@@ -164,6 +167,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.1016/S0031-0182(03)00261-X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lécuyer et al. (2003)</t>
   </si>
   <si>
     <t xml:space="preserve">JC6d</t>
@@ -559,10 +565,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI41"/>
+  <dimension ref="A1:AJ41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AI2" activeCellId="0" sqref="AI2:AI36"/>
+      <selection pane="topLeft" activeCell="AK6" activeCellId="0" sqref="AK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -593,7 +599,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="14.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="21.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="27.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="36" style="1" width="11.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="17.8"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="37" style="1" width="11.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -702,46 +709,49 @@
       <c r="AI1" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="AJ1" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J2" s="6" t="n">
         <v>19.2</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L2" s="6" t="n">
         <v>28.3</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N2" s="6" t="n">
         <v>-9.2</v>
@@ -803,51 +813,54 @@
         <v>-0.954181818181818</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>19.5</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L3" s="6" t="n">
         <v>28.5</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N3" s="6" t="n">
         <v>-8.9</v>
@@ -909,51 +922,54 @@
         <v>-0.954181818181818</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J4" s="6" t="n">
         <v>19.3</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L4" s="6" t="n">
         <v>29.1</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>-16.8</v>
@@ -1015,51 +1031,54 @@
         <v>-0.954181818181818</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J5" s="6" t="n">
         <v>20</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L5" s="6" t="n">
         <v>28.8</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>-16.2</v>
@@ -1121,51 +1140,54 @@
         <v>-0.954181818181818</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="I6" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J6" s="6" t="n">
         <v>18.9</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L6" s="6" t="n">
         <v>29.2</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>-16.5</v>
@@ -1227,51 +1249,54 @@
         <v>-0.954181818181818</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J7" s="6" t="n">
         <v>18.9</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="6" t="n">
         <v>28.7</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>-15.6</v>
@@ -1333,51 +1358,54 @@
         <v>-0.954181818181818</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J8" s="6" t="n">
         <v>18.7</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="6" t="n">
         <v>27.8</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>-4.5</v>
@@ -1396,51 +1424,54 @@
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="AH8" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="H9" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J9" s="6" t="n">
         <v>19.2</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L9" s="6" t="n">
         <v>27</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>-6.8</v>
@@ -1459,51 +1490,54 @@
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="AH9" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J10" s="6" t="n">
         <v>18.7</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L10" s="6" t="n">
         <v>27.1</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>-7.3</v>
@@ -1522,51 +1556,54 @@
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="AH10" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="C11" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J11" s="6" t="n">
         <v>19.1</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L11" s="6" t="n">
         <v>27.2</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>-6</v>
@@ -1585,51 +1622,54 @@
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="AH11" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J12" s="6" t="n">
         <v>19.2</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L12" s="6" t="n">
         <v>25.3</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>-4.6</v>
@@ -1648,51 +1688,54 @@
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="AH12" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J13" s="6" t="n">
         <v>20.3</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L13" s="6" t="n">
         <v>27</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>-6.8</v>
@@ -1711,51 +1754,54 @@
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="AH13" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J14" s="6" t="n">
         <v>19.3</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L14" s="6" t="n">
         <v>26.4</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>-7</v>
@@ -1774,45 +1820,48 @@
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
       <c r="AH14" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J15" s="6" t="n">
         <v>19.3</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -1829,51 +1878,54 @@
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
       <c r="AH15" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J16" s="6" t="n">
         <v>19.7</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L16" s="6" t="n">
         <v>27</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>-2.9</v>
@@ -1890,51 +1942,54 @@
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
       <c r="AH16" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J17" s="6" t="n">
         <v>19.5</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L17" s="6" t="n">
         <v>26.1</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>-6.2</v>
@@ -1951,45 +2006,48 @@
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
       <c r="AH17" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J18" s="6" t="n">
         <v>20.4</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -2006,45 +2064,48 @@
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
       <c r="AH18" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J19" s="6" t="n">
         <v>19.4</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
@@ -2061,45 +2122,48 @@
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="AH19" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AI19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J20" s="6" t="n">
         <v>18.8</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
@@ -2116,45 +2180,48 @@
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
       <c r="AH20" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI20" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J21" s="6" t="n">
         <v>18.9</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
@@ -2171,45 +2238,48 @@
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
       <c r="AH21" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI21" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AJ21" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J22" s="6" t="n">
         <v>19.3</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
@@ -2226,45 +2296,48 @@
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
       <c r="AH22" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI22" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AJ22" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J23" s="6" t="n">
         <v>19.1</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
@@ -2281,51 +2354,54 @@
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
       <c r="AH23" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI23" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J24" s="6" t="n">
         <v>19.4</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L24" s="6" t="n">
         <v>27.1</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>-1.9</v>
@@ -2344,51 +2420,54 @@
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
       <c r="AH24" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AI24" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AJ24" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J25" s="6" t="n">
         <v>18.7</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L25" s="6" t="n">
         <v>26.4</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>-3.4</v>
@@ -2407,51 +2486,54 @@
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
       <c r="AH25" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AI25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AJ25" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J26" s="6" t="n">
         <v>18.8</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L26" s="6" t="n">
         <v>25.4</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>-3.3</v>
@@ -2470,47 +2552,50 @@
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
       <c r="AH26" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AI26" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AJ26" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J27" s="6" t="n">
         <v>19.3</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L27" s="6" t="n">
         <v>29.7</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>-8</v>
@@ -2529,47 +2614,50 @@
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
       <c r="AH27" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AI27" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AJ27" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J28" s="6" t="n">
         <v>16.9</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L28" s="6" t="n">
         <v>28.7</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>-6.1</v>
@@ -2588,51 +2676,54 @@
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
       <c r="AH28" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AI28" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AJ28" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J29" s="6" t="n">
         <v>17.9</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L29" s="6" t="n">
         <v>27.1</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>-7.7</v>
@@ -2651,51 +2742,54 @@
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
       <c r="AH29" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AI29" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AJ29" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J30" s="6" t="n">
         <v>17.3</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L30" s="6" t="n">
         <v>25.4</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>-7.4</v>
@@ -2714,51 +2808,54 @@
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="AH30" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AI30" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AJ30" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J31" s="7" t="n">
         <v>17.9</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L31" s="7" t="n">
         <v>24.8</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N31" s="7" t="n">
         <v>-8.6</v>
@@ -2777,51 +2874,54 @@
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
       <c r="AH31" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AI31" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AJ31" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J32" s="7" t="n">
         <v>16.5</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L32" s="7" t="n">
         <v>25.8</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N32" s="7" t="n">
         <v>-8.1</v>
@@ -2840,51 +2940,54 @@
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
       <c r="AH32" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AI32" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AJ32" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J33" s="7" t="n">
         <v>17.2</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L33" s="7" t="n">
         <v>25.4</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N33" s="7" t="n">
         <v>-5.4</v>
@@ -2903,45 +3006,48 @@
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
       <c r="AH33" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AI33" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AJ33" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J34" s="7" t="n">
         <v>18.3</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L34" s="7"/>
       <c r="M34" s="6"/>
@@ -2958,51 +3064,54 @@
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
       <c r="AH34" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AI34" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AJ34" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J35" s="7" t="n">
         <v>19.1</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L35" s="7" t="n">
         <v>26.6</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N35" s="7" t="n">
         <v>-9</v>
@@ -3021,51 +3130,54 @@
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
       <c r="AH35" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AI35" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AJ35" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="F36" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J36" s="7" t="n">
         <v>19.4</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L36" s="7" t="n">
         <v>25.6</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N36" s="7" t="n">
         <v>-9</v>
@@ -3084,10 +3196,13 @@
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
       <c r="AH36" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AI36" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AJ36" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/datasheets/Lecuyer_et_al_2003.xlsx
+++ b/datasheets/Lecuyer_et_al_2003.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="131">
   <si>
     <t xml:space="preserve">Collection number</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">Taxon</t>
   </si>
   <si>
+    <t xml:space="preserve">Family</t>
+  </si>
+  <si>
     <t xml:space="preserve">Animal</t>
   </si>
   <si>
@@ -133,7 +136,10 @@
     <t xml:space="preserve">JC1e</t>
   </si>
   <si>
-    <t xml:space="preserve">Hydrocyon sp.</t>
+    <t xml:space="preserve">Hydrocynus sp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alestidae</t>
   </si>
   <si>
     <t xml:space="preserve">fish</t>
@@ -178,12 +184,18 @@
     <t xml:space="preserve">Mormyrus sp.</t>
   </si>
   <si>
+    <t xml:space="preserve">Mormyridae</t>
+  </si>
+  <si>
     <t xml:space="preserve">JC3v</t>
   </si>
   <si>
     <t xml:space="preserve">Osteolaemus tetraspis</t>
   </si>
   <si>
+    <t xml:space="preserve">Crocodylidae</t>
+  </si>
+  <si>
     <t xml:space="preserve">crocodilian</t>
   </si>
   <si>
@@ -206,6 +218,9 @@
   </si>
   <si>
     <t xml:space="preserve">Grayia smithii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colubridae</t>
   </si>
   <si>
     <t xml:space="preserve">snake</t>
@@ -565,42 +580,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ41"/>
+  <dimension ref="A1:AK41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AK6" activeCellId="0" sqref="AK6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.77"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="18" min="12" style="1" width="11.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="14.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="14.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="1" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="13.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="14.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="14.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="21.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="27.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="17.8"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="37" style="1" width="11.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="24.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="14.77"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="13" style="1" width="11.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="14.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="13.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="27.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="17.8"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="38" style="1" width="11.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -649,7 +664,7 @@
       <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="4" t="s">
@@ -712,2497 +727,2547 @@
       <c r="AJ1" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="6" t="n">
         <v>19.2</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="6" t="n">
         <v>28.3</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" s="6" t="n">
+      <c r="N2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="6" t="n">
         <v>-9.2</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="5" t="n">
+      <c r="P2" s="6"/>
+      <c r="Q2" s="5" t="n">
         <v>2.902</v>
       </c>
-      <c r="Q2" s="5" t="n">
+      <c r="R2" s="5" t="n">
         <v>18.502</v>
       </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="7" t="n">
-        <f aca="false">AVERAGE(V2:AG2)</f>
+      <c r="S2" s="5"/>
+      <c r="T2" s="7" t="n">
+        <f aca="false">AVERAGE(W2:AH2)</f>
         <v>-0.696762142255892</v>
       </c>
-      <c r="T2" s="7" t="n">
-        <f aca="false">MIN(V2:AG2)</f>
+      <c r="U2" s="7" t="n">
+        <f aca="false">MIN(W2:AH2)</f>
         <v>-2.2274</v>
       </c>
-      <c r="U2" s="7" t="n">
-        <f aca="false">MAX(V2:AG2)</f>
+      <c r="V2" s="7" t="n">
+        <f aca="false">MAX(W2:AH2)</f>
         <v>1.1315</v>
       </c>
-      <c r="V2" s="7" t="n">
+      <c r="W2" s="7" t="n">
         <v>0.387125</v>
       </c>
-      <c r="W2" s="7" t="n">
+      <c r="X2" s="7" t="n">
         <v>0.177222222222222</v>
       </c>
-      <c r="X2" s="7" t="n">
+      <c r="Y2" s="7" t="n">
         <v>1.1315</v>
       </c>
-      <c r="Y2" s="7" t="n">
+      <c r="Z2" s="7" t="n">
         <v>1.0046</v>
       </c>
-      <c r="Z2" s="7" t="n">
+      <c r="AA2" s="7" t="n">
         <v>-0.729375</v>
       </c>
-      <c r="AA2" s="7" t="n">
+      <c r="AB2" s="7" t="n">
         <v>-1.16333333333333</v>
       </c>
-      <c r="AB2" s="7" t="n">
+      <c r="AC2" s="7" t="n">
         <v>-1.099875</v>
       </c>
-      <c r="AC2" s="7" t="n">
+      <c r="AD2" s="7" t="n">
         <v>-1.79777777777778</v>
       </c>
-      <c r="AD2" s="7" t="n">
+      <c r="AE2" s="7" t="n">
         <v>-2.2274</v>
       </c>
-      <c r="AE2" s="7" t="n">
+      <c r="AF2" s="7" t="n">
         <v>-1.60475</v>
       </c>
-      <c r="AF2" s="7" t="n">
+      <c r="AG2" s="7" t="n">
         <v>-1.4849</v>
       </c>
-      <c r="AG2" s="7" t="n">
+      <c r="AH2" s="7" t="n">
         <v>-0.954181818181818</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="AI2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="6" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="6" t="n">
+        <v>-8.9</v>
+      </c>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="5" t="n">
+        <v>2.902</v>
+      </c>
+      <c r="R3" s="5" t="n">
+        <v>18.502</v>
+      </c>
+      <c r="S3" s="5"/>
+      <c r="T3" s="7" t="n">
+        <f aca="false">AVERAGE(W3:AH3)</f>
+        <v>-0.696762142255892</v>
+      </c>
+      <c r="U3" s="7" t="n">
+        <f aca="false">MIN(W3:AH3)</f>
+        <v>-2.2274</v>
+      </c>
+      <c r="V3" s="7" t="n">
+        <f aca="false">MAX(W3:AH3)</f>
+        <v>1.1315</v>
+      </c>
+      <c r="W3" s="7" t="n">
+        <v>0.387125</v>
+      </c>
+      <c r="X3" s="7" t="n">
+        <v>0.177222222222222</v>
+      </c>
+      <c r="Y3" s="7" t="n">
+        <v>1.1315</v>
+      </c>
+      <c r="Z3" s="7" t="n">
+        <v>1.0046</v>
+      </c>
+      <c r="AA3" s="7" t="n">
+        <v>-0.729375</v>
+      </c>
+      <c r="AB3" s="7" t="n">
+        <v>-1.16333333333333</v>
+      </c>
+      <c r="AC3" s="7" t="n">
+        <v>-1.099875</v>
+      </c>
+      <c r="AD3" s="7" t="n">
+        <v>-1.79777777777778</v>
+      </c>
+      <c r="AE3" s="7" t="n">
+        <v>-2.2274</v>
+      </c>
+      <c r="AF3" s="7" t="n">
+        <v>-1.60475</v>
+      </c>
+      <c r="AG3" s="7" t="n">
+        <v>-1.4849</v>
+      </c>
+      <c r="AH3" s="7" t="n">
+        <v>-0.954181818181818</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="AK3" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="6" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="6" t="n">
-        <v>-8.9</v>
-      </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="5" t="n">
-        <v>2.902</v>
-      </c>
-      <c r="Q3" s="5" t="n">
-        <v>18.502</v>
-      </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="7" t="n">
-        <f aca="false">AVERAGE(V3:AG3)</f>
-        <v>-0.696762142255892</v>
-      </c>
-      <c r="T3" s="7" t="n">
-        <f aca="false">MIN(V3:AG3)</f>
-        <v>-2.2274</v>
-      </c>
-      <c r="U3" s="7" t="n">
-        <f aca="false">MAX(V3:AG3)</f>
-        <v>1.1315</v>
-      </c>
-      <c r="V3" s="7" t="n">
-        <v>0.387125</v>
-      </c>
-      <c r="W3" s="7" t="n">
-        <v>0.177222222222222</v>
-      </c>
-      <c r="X3" s="7" t="n">
-        <v>1.1315</v>
-      </c>
-      <c r="Y3" s="7" t="n">
-        <v>1.0046</v>
-      </c>
-      <c r="Z3" s="7" t="n">
-        <v>-0.729375</v>
-      </c>
-      <c r="AA3" s="7" t="n">
-        <v>-1.16333333333333</v>
-      </c>
-      <c r="AB3" s="7" t="n">
-        <v>-1.099875</v>
-      </c>
-      <c r="AC3" s="7" t="n">
-        <v>-1.79777777777778</v>
-      </c>
-      <c r="AD3" s="7" t="n">
-        <v>-2.2274</v>
-      </c>
-      <c r="AE3" s="7" t="n">
-        <v>-1.60475</v>
-      </c>
-      <c r="AF3" s="7" t="n">
-        <v>-1.4849</v>
-      </c>
-      <c r="AG3" s="7" t="n">
-        <v>-0.954181818181818</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="6" t="n">
         <v>19.3</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="6" t="n">
+      <c r="L4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="6" t="n">
         <v>29.1</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="6" t="n">
+      <c r="N4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="6" t="n">
         <v>-16.8</v>
       </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="5" t="n">
+      <c r="P4" s="6"/>
+      <c r="Q4" s="5" t="n">
         <v>2.902</v>
       </c>
-      <c r="Q4" s="5" t="n">
+      <c r="R4" s="5" t="n">
         <v>18.502</v>
       </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="7" t="n">
-        <f aca="false">AVERAGE(V4:AG4)</f>
+      <c r="S4" s="5"/>
+      <c r="T4" s="7" t="n">
+        <f aca="false">AVERAGE(W4:AH4)</f>
         <v>-0.696762142255892</v>
       </c>
-      <c r="T4" s="7" t="n">
-        <f aca="false">MIN(V4:AG4)</f>
+      <c r="U4" s="7" t="n">
+        <f aca="false">MIN(W4:AH4)</f>
         <v>-2.2274</v>
       </c>
-      <c r="U4" s="7" t="n">
-        <f aca="false">MAX(V4:AG4)</f>
+      <c r="V4" s="7" t="n">
+        <f aca="false">MAX(W4:AH4)</f>
         <v>1.1315</v>
       </c>
-      <c r="V4" s="7" t="n">
+      <c r="W4" s="7" t="n">
         <v>0.387125</v>
       </c>
-      <c r="W4" s="7" t="n">
+      <c r="X4" s="7" t="n">
         <v>0.177222222222222</v>
       </c>
-      <c r="X4" s="7" t="n">
+      <c r="Y4" s="7" t="n">
         <v>1.1315</v>
       </c>
-      <c r="Y4" s="7" t="n">
+      <c r="Z4" s="7" t="n">
         <v>1.0046</v>
       </c>
-      <c r="Z4" s="7" t="n">
+      <c r="AA4" s="7" t="n">
         <v>-0.729375</v>
       </c>
-      <c r="AA4" s="7" t="n">
+      <c r="AB4" s="7" t="n">
         <v>-1.16333333333333</v>
       </c>
-      <c r="AB4" s="7" t="n">
+      <c r="AC4" s="7" t="n">
         <v>-1.099875</v>
       </c>
-      <c r="AC4" s="7" t="n">
+      <c r="AD4" s="7" t="n">
         <v>-1.79777777777778</v>
       </c>
-      <c r="AD4" s="7" t="n">
+      <c r="AE4" s="7" t="n">
         <v>-2.2274</v>
       </c>
-      <c r="AE4" s="7" t="n">
+      <c r="AF4" s="7" t="n">
         <v>-1.60475</v>
       </c>
-      <c r="AF4" s="7" t="n">
+      <c r="AG4" s="7" t="n">
         <v>-1.4849</v>
       </c>
-      <c r="AG4" s="7" t="n">
+      <c r="AH4" s="7" t="n">
         <v>-0.954181818181818</v>
       </c>
-      <c r="AH4" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="AI4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="6" t="n">
+      <c r="L5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="6" t="n">
         <v>28.8</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N5" s="6" t="n">
+      <c r="N5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="6" t="n">
         <v>-16.2</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="5" t="n">
+      <c r="P5" s="6"/>
+      <c r="Q5" s="5" t="n">
         <v>2.902</v>
       </c>
-      <c r="Q5" s="5" t="n">
+      <c r="R5" s="5" t="n">
         <v>18.502</v>
       </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="7" t="n">
-        <f aca="false">AVERAGE(V5:AG5)</f>
+      <c r="S5" s="5"/>
+      <c r="T5" s="7" t="n">
+        <f aca="false">AVERAGE(W5:AH5)</f>
         <v>-0.696762142255892</v>
       </c>
-      <c r="T5" s="7" t="n">
-        <f aca="false">MIN(V5:AG5)</f>
+      <c r="U5" s="7" t="n">
+        <f aca="false">MIN(W5:AH5)</f>
         <v>-2.2274</v>
       </c>
-      <c r="U5" s="7" t="n">
-        <f aca="false">MAX(V5:AG5)</f>
+      <c r="V5" s="7" t="n">
+        <f aca="false">MAX(W5:AH5)</f>
         <v>1.1315</v>
       </c>
-      <c r="V5" s="7" t="n">
+      <c r="W5" s="7" t="n">
         <v>0.387125</v>
       </c>
-      <c r="W5" s="7" t="n">
+      <c r="X5" s="7" t="n">
         <v>0.177222222222222</v>
       </c>
-      <c r="X5" s="7" t="n">
+      <c r="Y5" s="7" t="n">
         <v>1.1315</v>
       </c>
-      <c r="Y5" s="7" t="n">
+      <c r="Z5" s="7" t="n">
         <v>1.0046</v>
       </c>
-      <c r="Z5" s="7" t="n">
+      <c r="AA5" s="7" t="n">
         <v>-0.729375</v>
       </c>
-      <c r="AA5" s="7" t="n">
+      <c r="AB5" s="7" t="n">
         <v>-1.16333333333333</v>
       </c>
-      <c r="AB5" s="7" t="n">
+      <c r="AC5" s="7" t="n">
         <v>-1.099875</v>
       </c>
-      <c r="AC5" s="7" t="n">
+      <c r="AD5" s="7" t="n">
         <v>-1.79777777777778</v>
       </c>
-      <c r="AD5" s="7" t="n">
+      <c r="AE5" s="7" t="n">
         <v>-2.2274</v>
       </c>
-      <c r="AE5" s="7" t="n">
+      <c r="AF5" s="7" t="n">
         <v>-1.60475</v>
       </c>
-      <c r="AF5" s="7" t="n">
+      <c r="AG5" s="7" t="n">
         <v>-1.4849</v>
       </c>
-      <c r="AG5" s="7" t="n">
+      <c r="AH5" s="7" t="n">
         <v>-0.954181818181818</v>
       </c>
-      <c r="AH5" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="AI5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="6" t="n">
         <v>18.9</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="6" t="n">
+      <c r="L6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="6" t="n">
         <v>29.2</v>
       </c>
-      <c r="M6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="6" t="n">
+      <c r="N6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="6" t="n">
         <v>-16.5</v>
       </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="5" t="n">
+      <c r="P6" s="6"/>
+      <c r="Q6" s="5" t="n">
         <v>2.902</v>
       </c>
-      <c r="Q6" s="5" t="n">
+      <c r="R6" s="5" t="n">
         <v>18.502</v>
       </c>
-      <c r="R6" s="5"/>
-      <c r="S6" s="7" t="n">
-        <f aca="false">AVERAGE(V6:AG6)</f>
+      <c r="S6" s="5"/>
+      <c r="T6" s="7" t="n">
+        <f aca="false">AVERAGE(W6:AH6)</f>
         <v>-0.696762142255892</v>
       </c>
-      <c r="T6" s="7" t="n">
-        <f aca="false">MIN(V6:AG6)</f>
+      <c r="U6" s="7" t="n">
+        <f aca="false">MIN(W6:AH6)</f>
         <v>-2.2274</v>
       </c>
-      <c r="U6" s="7" t="n">
-        <f aca="false">MAX(V6:AG6)</f>
+      <c r="V6" s="7" t="n">
+        <f aca="false">MAX(W6:AH6)</f>
         <v>1.1315</v>
       </c>
-      <c r="V6" s="7" t="n">
+      <c r="W6" s="7" t="n">
         <v>0.387125</v>
       </c>
-      <c r="W6" s="7" t="n">
+      <c r="X6" s="7" t="n">
         <v>0.177222222222222</v>
       </c>
-      <c r="X6" s="7" t="n">
+      <c r="Y6" s="7" t="n">
         <v>1.1315</v>
       </c>
-      <c r="Y6" s="7" t="n">
+      <c r="Z6" s="7" t="n">
         <v>1.0046</v>
       </c>
-      <c r="Z6" s="7" t="n">
+      <c r="AA6" s="7" t="n">
         <v>-0.729375</v>
       </c>
-      <c r="AA6" s="7" t="n">
+      <c r="AB6" s="7" t="n">
         <v>-1.16333333333333</v>
       </c>
-      <c r="AB6" s="7" t="n">
+      <c r="AC6" s="7" t="n">
         <v>-1.099875</v>
       </c>
-      <c r="AC6" s="7" t="n">
+      <c r="AD6" s="7" t="n">
         <v>-1.79777777777778</v>
       </c>
-      <c r="AD6" s="7" t="n">
+      <c r="AE6" s="7" t="n">
         <v>-2.2274</v>
       </c>
-      <c r="AE6" s="7" t="n">
+      <c r="AF6" s="7" t="n">
         <v>-1.60475</v>
       </c>
-      <c r="AF6" s="7" t="n">
+      <c r="AG6" s="7" t="n">
         <v>-1.4849</v>
       </c>
-      <c r="AG6" s="7" t="n">
+      <c r="AH6" s="7" t="n">
         <v>-0.954181818181818</v>
       </c>
-      <c r="AH6" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="AI6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="6" t="n">
+      <c r="J7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="6" t="n">
         <v>18.9</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="6" t="n">
+      <c r="L7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="6" t="n">
         <v>28.7</v>
       </c>
-      <c r="M7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" s="6" t="n">
+      <c r="N7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="6" t="n">
         <v>-15.6</v>
       </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="5" t="n">
+      <c r="P7" s="6"/>
+      <c r="Q7" s="5" t="n">
         <v>2.902</v>
       </c>
-      <c r="Q7" s="5" t="n">
+      <c r="R7" s="5" t="n">
         <v>18.502</v>
       </c>
-      <c r="R7" s="5"/>
-      <c r="S7" s="7" t="n">
-        <f aca="false">AVERAGE(V7:AG7)</f>
+      <c r="S7" s="5"/>
+      <c r="T7" s="7" t="n">
+        <f aca="false">AVERAGE(W7:AH7)</f>
         <v>-0.696762142255892</v>
       </c>
-      <c r="T7" s="7" t="n">
-        <f aca="false">MIN(V7:AG7)</f>
+      <c r="U7" s="7" t="n">
+        <f aca="false">MIN(W7:AH7)</f>
         <v>-2.2274</v>
       </c>
-      <c r="U7" s="7" t="n">
-        <f aca="false">MAX(V7:AG7)</f>
+      <c r="V7" s="7" t="n">
+        <f aca="false">MAX(W7:AH7)</f>
         <v>1.1315</v>
       </c>
-      <c r="V7" s="7" t="n">
+      <c r="W7" s="7" t="n">
         <v>0.387125</v>
       </c>
-      <c r="W7" s="7" t="n">
+      <c r="X7" s="7" t="n">
         <v>0.177222222222222</v>
       </c>
-      <c r="X7" s="7" t="n">
+      <c r="Y7" s="7" t="n">
         <v>1.1315</v>
       </c>
-      <c r="Y7" s="7" t="n">
+      <c r="Z7" s="7" t="n">
         <v>1.0046</v>
       </c>
-      <c r="Z7" s="7" t="n">
+      <c r="AA7" s="7" t="n">
         <v>-0.729375</v>
       </c>
-      <c r="AA7" s="7" t="n">
+      <c r="AB7" s="7" t="n">
         <v>-1.16333333333333</v>
       </c>
-      <c r="AB7" s="7" t="n">
+      <c r="AC7" s="7" t="n">
         <v>-1.099875</v>
       </c>
-      <c r="AC7" s="7" t="n">
+      <c r="AD7" s="7" t="n">
         <v>-1.79777777777778</v>
       </c>
-      <c r="AD7" s="7" t="n">
+      <c r="AE7" s="7" t="n">
         <v>-2.2274</v>
       </c>
-      <c r="AE7" s="7" t="n">
+      <c r="AF7" s="7" t="n">
         <v>-1.60475</v>
       </c>
-      <c r="AF7" s="7" t="n">
+      <c r="AG7" s="7" t="n">
         <v>-1.4849</v>
       </c>
-      <c r="AG7" s="7" t="n">
+      <c r="AH7" s="7" t="n">
         <v>-0.954181818181818</v>
       </c>
-      <c r="AH7" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="AI7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>65</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="6" t="n">
         <v>18.7</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="6" t="n">
+      <c r="L8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="6" t="n">
         <v>27.8</v>
       </c>
-      <c r="M8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" s="6" t="n">
+      <c r="N8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="6" t="n">
         <v>-4.5</v>
       </c>
-      <c r="O8" s="6" t="n">
+      <c r="P8" s="6" t="n">
         <v>4.6</v>
       </c>
-      <c r="P8" s="5" t="n">
+      <c r="Q8" s="5" t="n">
         <v>42.013</v>
       </c>
-      <c r="Q8" s="5" t="n">
+      <c r="R8" s="5" t="n">
         <v>-2.625</v>
       </c>
-      <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
-      <c r="AH8" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="V8" s="5"/>
       <c r="AI8" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="I9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="6" t="n">
         <v>19.2</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="6" t="n">
+      <c r="L9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="M9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N9" s="6" t="n">
+      <c r="N9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="6" t="n">
         <v>-6.8</v>
       </c>
-      <c r="O9" s="6" t="n">
+      <c r="P9" s="6" t="n">
         <v>4.8</v>
       </c>
-      <c r="P9" s="5" t="n">
+      <c r="Q9" s="5" t="n">
         <v>42.013</v>
       </c>
-      <c r="Q9" s="5" t="n">
+      <c r="R9" s="5" t="n">
         <v>-2.625</v>
       </c>
-      <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
-      <c r="AH9" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="V9" s="5"/>
       <c r="AI9" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>54</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="6" t="n">
         <v>18.7</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="6" t="n">
+      <c r="L10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="6" t="n">
         <v>27.1</v>
       </c>
-      <c r="M10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10" s="6" t="n">
+      <c r="N10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" s="6" t="n">
         <v>-7.3</v>
       </c>
-      <c r="O10" s="6" t="n">
+      <c r="P10" s="6" t="n">
         <v>5.1</v>
       </c>
-      <c r="P10" s="5" t="n">
+      <c r="Q10" s="5" t="n">
         <v>42.013</v>
       </c>
-      <c r="Q10" s="5" t="n">
+      <c r="R10" s="5" t="n">
         <v>-2.625</v>
       </c>
-      <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
-      <c r="AH10" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="V10" s="5"/>
       <c r="AI10" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>54</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="6" t="n">
         <v>19.1</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="6" t="n">
+      <c r="L11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="6" t="n">
         <v>27.2</v>
       </c>
-      <c r="M11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N11" s="6" t="n">
+      <c r="N11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" s="6" t="n">
         <v>-6</v>
       </c>
-      <c r="O11" s="6" t="n">
+      <c r="P11" s="6" t="n">
         <v>4.9</v>
       </c>
-      <c r="P11" s="5" t="n">
+      <c r="Q11" s="5" t="n">
         <v>42.013</v>
       </c>
-      <c r="Q11" s="5" t="n">
+      <c r="R11" s="5" t="n">
         <v>-2.625</v>
       </c>
-      <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
-      <c r="AH11" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="V11" s="5"/>
       <c r="AI11" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>54</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="6" t="n">
         <v>19.2</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" s="6" t="n">
+      <c r="L12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="6" t="n">
         <v>25.3</v>
       </c>
-      <c r="M12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N12" s="6" t="n">
+      <c r="N12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O12" s="6" t="n">
         <v>-4.6</v>
       </c>
-      <c r="O12" s="6" t="n">
+      <c r="P12" s="6" t="n">
         <v>4.9</v>
       </c>
-      <c r="P12" s="5" t="n">
+      <c r="Q12" s="5" t="n">
         <v>42.013</v>
       </c>
-      <c r="Q12" s="5" t="n">
+      <c r="R12" s="5" t="n">
         <v>-2.625</v>
       </c>
-      <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
-      <c r="AH12" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="V12" s="5"/>
       <c r="AI12" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AJ12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="H13" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="6" t="n">
         <v>20.3</v>
       </c>
-      <c r="K13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" s="6" t="n">
+      <c r="L13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="M13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N13" s="6" t="n">
+      <c r="N13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="6" t="n">
         <v>-6.8</v>
       </c>
-      <c r="O13" s="6" t="n">
+      <c r="P13" s="6" t="n">
         <v>4.2</v>
       </c>
-      <c r="P13" s="5" t="n">
+      <c r="Q13" s="5" t="n">
         <v>42.013</v>
       </c>
-      <c r="Q13" s="5" t="n">
+      <c r="R13" s="5" t="n">
         <v>-2.625</v>
       </c>
-      <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
-      <c r="AH13" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="V13" s="5"/>
       <c r="AI13" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AJ13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="H14" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="6" t="n">
         <v>19.3</v>
       </c>
-      <c r="K14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" s="6" t="n">
+      <c r="L14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" s="6" t="n">
         <v>26.4</v>
       </c>
-      <c r="M14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N14" s="6" t="n">
+      <c r="N14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" s="6" t="n">
         <v>-7</v>
       </c>
-      <c r="O14" s="6" t="n">
+      <c r="P14" s="6" t="n">
         <v>4.4</v>
       </c>
-      <c r="P14" s="5" t="n">
+      <c r="Q14" s="5" t="n">
         <v>42.013</v>
       </c>
-      <c r="Q14" s="5" t="n">
+      <c r="R14" s="5" t="n">
         <v>-2.625</v>
       </c>
-      <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
-      <c r="AH14" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="V14" s="5"/>
       <c r="AI14" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="H15" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="6" t="n">
         <v>19.3</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L15" s="6"/>
+      <c r="L15" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="5" t="n">
+      <c r="P15" s="6"/>
+      <c r="Q15" s="5" t="n">
         <v>42.013</v>
       </c>
-      <c r="Q15" s="5" t="n">
+      <c r="R15" s="5" t="n">
         <v>-2.625</v>
       </c>
-      <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
-      <c r="AH15" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="V15" s="5"/>
       <c r="AI15" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AK15" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>38</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="6" t="n">
         <v>19.7</v>
       </c>
-      <c r="K16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L16" s="6" t="n">
+      <c r="L16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="M16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N16" s="6" t="n">
+      <c r="N16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16" s="6" t="n">
         <v>-2.9</v>
       </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="5" t="n">
+      <c r="P16" s="6"/>
+      <c r="Q16" s="5" t="n">
         <v>42.013</v>
       </c>
-      <c r="Q16" s="5" t="n">
+      <c r="R16" s="5" t="n">
         <v>-2.625</v>
       </c>
-      <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
-      <c r="AH16" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="V16" s="5"/>
       <c r="AI16" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AJ16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AK16" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>65</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="6" t="n">
         <v>19.5</v>
       </c>
-      <c r="K17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="6" t="n">
+      <c r="L17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="6" t="n">
         <v>26.1</v>
       </c>
-      <c r="M17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N17" s="6" t="n">
+      <c r="N17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" s="6" t="n">
         <v>-6.2</v>
       </c>
-      <c r="O17" s="6"/>
-      <c r="P17" s="5" t="n">
+      <c r="P17" s="6"/>
+      <c r="Q17" s="5" t="n">
         <v>42.013</v>
       </c>
-      <c r="Q17" s="5" t="n">
+      <c r="R17" s="5" t="n">
         <v>-2.625</v>
       </c>
-      <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
-      <c r="AH17" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="V17" s="5"/>
       <c r="AI17" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AJ17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AK17" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>54</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="6" t="n">
         <v>20.4</v>
       </c>
-      <c r="K18" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="L18" s="6"/>
+      <c r="L18" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="5" t="n">
+      <c r="P18" s="6"/>
+      <c r="Q18" s="5" t="n">
         <v>42.013</v>
       </c>
-      <c r="Q18" s="5" t="n">
+      <c r="R18" s="5" t="n">
         <v>-2.625</v>
       </c>
-      <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
-      <c r="AH18" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="V18" s="5"/>
       <c r="AI18" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AJ18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AK18" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="H19" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="6" t="n">
         <v>19.4</v>
       </c>
-      <c r="K19" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="L19" s="6"/>
+      <c r="L19" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="5" t="n">
+      <c r="P19" s="6"/>
+      <c r="Q19" s="5" t="n">
         <v>42.013</v>
       </c>
-      <c r="Q19" s="5" t="n">
+      <c r="R19" s="5" t="n">
         <v>-2.625</v>
       </c>
-      <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
-      <c r="AH19" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="V19" s="5"/>
       <c r="AI19" s="1" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="AJ19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AK19" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>54</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J20" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="6" t="n">
         <v>18.8</v>
       </c>
-      <c r="K20" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="L20" s="6"/>
+      <c r="L20" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="5" t="n">
+      <c r="P20" s="6"/>
+      <c r="Q20" s="5" t="n">
         <v>42.013</v>
       </c>
-      <c r="Q20" s="5" t="n">
+      <c r="R20" s="5" t="n">
         <v>-2.625</v>
       </c>
-      <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
-      <c r="AH20" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="V20" s="5"/>
       <c r="AI20" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AJ20" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AK20" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="6" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" s="6" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
-      <c r="P21" s="5" t="n">
+      <c r="P21" s="6"/>
+      <c r="Q21" s="5" t="n">
         <v>42.013</v>
       </c>
-      <c r="Q21" s="5" t="n">
+      <c r="R21" s="5" t="n">
         <v>-2.625</v>
       </c>
-      <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
-      <c r="AH21" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="V21" s="5"/>
       <c r="AI21" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AJ21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AK21" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>54</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J22" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="6" t="n">
         <v>19.3</v>
       </c>
-      <c r="K22" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="L22" s="6"/>
+      <c r="L22" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="5" t="n">
+      <c r="P22" s="6"/>
+      <c r="Q22" s="5" t="n">
         <v>42.013</v>
       </c>
-      <c r="Q22" s="5" t="n">
+      <c r="R22" s="5" t="n">
         <v>-2.625</v>
       </c>
-      <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
-      <c r="AH22" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="V22" s="5"/>
       <c r="AI22" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AJ22" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AK22" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="H23" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J23" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="6" t="n">
         <v>19.1</v>
       </c>
-      <c r="K23" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="L23" s="6"/>
+      <c r="L23" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="5" t="n">
+      <c r="P23" s="6"/>
+      <c r="Q23" s="5" t="n">
         <v>42.013</v>
       </c>
-      <c r="Q23" s="5" t="n">
+      <c r="R23" s="5" t="n">
         <v>-2.625</v>
       </c>
-      <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
-      <c r="AH23" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="V23" s="5"/>
       <c r="AI23" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AJ23" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AK23" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>38</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J24" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="6" t="n">
         <v>19.4</v>
       </c>
-      <c r="K24" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L24" s="6" t="n">
+      <c r="L24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M24" s="6" t="n">
         <v>27.1</v>
       </c>
-      <c r="M24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N24" s="6" t="n">
+      <c r="N24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O24" s="6" t="n">
         <v>-1.9</v>
       </c>
-      <c r="O24" s="6" t="n">
+      <c r="P24" s="6" t="n">
         <v>5.5</v>
       </c>
-      <c r="P24" s="5" t="n">
+      <c r="Q24" s="5" t="n">
         <v>42.013</v>
       </c>
-      <c r="Q24" s="5" t="n">
+      <c r="R24" s="5" t="n">
         <v>-2.625</v>
       </c>
-      <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
-      <c r="AH24" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="V24" s="5"/>
       <c r="AI24" s="1" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="AJ24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AK24" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>38</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J25" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="6" t="n">
         <v>18.7</v>
       </c>
-      <c r="K25" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L25" s="6" t="n">
+      <c r="L25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M25" s="6" t="n">
         <v>26.4</v>
       </c>
-      <c r="M25" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N25" s="6" t="n">
+      <c r="N25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O25" s="6" t="n">
         <v>-3.4</v>
       </c>
-      <c r="O25" s="6" t="n">
+      <c r="P25" s="6" t="n">
         <v>6.6</v>
       </c>
-      <c r="P25" s="5" t="n">
+      <c r="Q25" s="5" t="n">
         <v>42.013</v>
       </c>
-      <c r="Q25" s="5" t="n">
+      <c r="R25" s="5" t="n">
         <v>-2.625</v>
       </c>
-      <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
-      <c r="AH25" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="V25" s="5"/>
       <c r="AI25" s="1" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="AJ25" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AK25" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>38</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J26" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="6" t="n">
         <v>18.8</v>
       </c>
-      <c r="K26" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L26" s="6" t="n">
+      <c r="L26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M26" s="6" t="n">
         <v>25.4</v>
       </c>
-      <c r="M26" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N26" s="6" t="n">
+      <c r="N26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O26" s="6" t="n">
         <v>-3.3</v>
       </c>
-      <c r="O26" s="6" t="n">
+      <c r="P26" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="P26" s="5" t="n">
+      <c r="Q26" s="5" t="n">
         <v>42.013</v>
       </c>
-      <c r="Q26" s="5" t="n">
+      <c r="R26" s="5" t="n">
         <v>-2.625</v>
       </c>
-      <c r="R26" s="5"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
-      <c r="AH26" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="V26" s="5"/>
       <c r="AI26" s="1" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="AJ26" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AK26" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="D27" s="5"/>
       <c r="E27" s="5" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J27" s="6" t="n">
+        <v>73</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="6" t="n">
         <v>19.3</v>
       </c>
-      <c r="K27" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L27" s="6" t="n">
+      <c r="L27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M27" s="6" t="n">
         <v>29.7</v>
       </c>
-      <c r="M27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N27" s="6" t="n">
+      <c r="N27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O27" s="6" t="n">
         <v>-8</v>
       </c>
-      <c r="O27" s="6" t="n">
+      <c r="P27" s="6" t="n">
         <v>6.2</v>
       </c>
-      <c r="P27" s="5" t="n">
+      <c r="Q27" s="5" t="n">
         <v>42.846</v>
       </c>
-      <c r="Q27" s="5" t="n">
+      <c r="R27" s="5" t="n">
         <v>-3.461</v>
       </c>
-      <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
-      <c r="AH27" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="V27" s="5"/>
       <c r="AI27" s="1" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="AJ27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AK27" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="D28" s="5"/>
       <c r="E28" s="5" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J28" s="6" t="n">
+        <v>73</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" s="6" t="n">
         <v>16.9</v>
       </c>
-      <c r="K28" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L28" s="6" t="n">
+      <c r="L28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M28" s="6" t="n">
         <v>28.7</v>
       </c>
-      <c r="M28" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N28" s="6" t="n">
+      <c r="N28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O28" s="6" t="n">
         <v>-6.1</v>
       </c>
-      <c r="O28" s="6" t="n">
+      <c r="P28" s="6" t="n">
         <v>6.1</v>
       </c>
-      <c r="P28" s="5" t="n">
+      <c r="Q28" s="5" t="n">
         <v>42.846</v>
       </c>
-      <c r="Q28" s="5" t="n">
+      <c r="R28" s="5" t="n">
         <v>-3.461</v>
       </c>
-      <c r="R28" s="5"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
-      <c r="AH28" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="V28" s="5"/>
       <c r="AI28" s="1" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="AJ28" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AK28" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>65</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J29" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" s="6" t="n">
         <v>17.9</v>
       </c>
-      <c r="K29" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L29" s="6" t="n">
+      <c r="L29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M29" s="6" t="n">
         <v>27.1</v>
       </c>
-      <c r="M29" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N29" s="6" t="n">
+      <c r="N29" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O29" s="6" t="n">
         <v>-7.7</v>
       </c>
-      <c r="O29" s="6" t="n">
+      <c r="P29" s="6" t="n">
         <v>5.2</v>
       </c>
-      <c r="P29" s="5" t="n">
+      <c r="Q29" s="5" t="n">
         <v>42.846</v>
       </c>
-      <c r="Q29" s="5" t="n">
+      <c r="R29" s="5" t="n">
         <v>-3.461</v>
       </c>
-      <c r="R29" s="5"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
-      <c r="AH29" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="V29" s="5"/>
       <c r="AI29" s="1" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="AJ29" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AK29" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>38</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J30" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" s="6" t="n">
         <v>17.3</v>
       </c>
-      <c r="K30" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L30" s="6" t="n">
+      <c r="L30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M30" s="6" t="n">
         <v>25.4</v>
       </c>
-      <c r="M30" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N30" s="6" t="n">
+      <c r="N30" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O30" s="6" t="n">
         <v>-7.4</v>
       </c>
-      <c r="O30" s="6" t="n">
+      <c r="P30" s="6" t="n">
         <v>6.4</v>
       </c>
-      <c r="P30" s="5" t="n">
+      <c r="Q30" s="5" t="n">
         <v>42.846</v>
       </c>
-      <c r="Q30" s="5" t="n">
+      <c r="R30" s="5" t="n">
         <v>-3.461</v>
       </c>
-      <c r="R30" s="5"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
-      <c r="AH30" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="V30" s="5"/>
       <c r="AI30" s="1" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="AJ30" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AK30" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="G31" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J31" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="7" t="n">
         <v>17.9</v>
       </c>
-      <c r="K31" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L31" s="7" t="n">
+      <c r="L31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M31" s="7" t="n">
         <v>24.8</v>
       </c>
-      <c r="M31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N31" s="7" t="n">
+      <c r="N31" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O31" s="7" t="n">
         <v>-8.6</v>
       </c>
-      <c r="O31" s="7" t="n">
+      <c r="P31" s="7" t="n">
         <v>5.7</v>
       </c>
-      <c r="P31" s="5" t="n">
+      <c r="Q31" s="5" t="n">
         <v>42.846</v>
       </c>
-      <c r="Q31" s="5" t="n">
+      <c r="R31" s="5" t="n">
         <v>-3.461</v>
       </c>
-      <c r="R31" s="5"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
-      <c r="AH31" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="V31" s="5"/>
       <c r="AI31" s="1" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="AJ31" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AK31" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>54</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J32" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" s="7" t="n">
         <v>16.5</v>
       </c>
-      <c r="K32" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L32" s="7" t="n">
+      <c r="L32" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M32" s="7" t="n">
         <v>25.8</v>
       </c>
-      <c r="M32" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N32" s="7" t="n">
+      <c r="N32" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O32" s="7" t="n">
         <v>-8.1</v>
       </c>
-      <c r="O32" s="7" t="n">
+      <c r="P32" s="7" t="n">
         <v>3.5</v>
       </c>
-      <c r="P32" s="5" t="n">
+      <c r="Q32" s="5" t="n">
         <v>42.846</v>
       </c>
-      <c r="Q32" s="5" t="n">
+      <c r="R32" s="5" t="n">
         <v>-3.461</v>
       </c>
-      <c r="R32" s="5"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
-      <c r="AH32" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="V32" s="5"/>
       <c r="AI32" s="1" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="AJ32" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AK32" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>54</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C33" s="5"/>
       <c r="D33" s="5" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J33" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" s="7" t="n">
         <v>17.2</v>
       </c>
-      <c r="K33" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L33" s="7" t="n">
+      <c r="L33" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M33" s="7" t="n">
         <v>25.4</v>
       </c>
-      <c r="M33" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N33" s="7" t="n">
+      <c r="N33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O33" s="7" t="n">
         <v>-5.4</v>
       </c>
-      <c r="O33" s="7" t="n">
+      <c r="P33" s="7" t="n">
         <v>6.1</v>
       </c>
-      <c r="P33" s="5" t="n">
+      <c r="Q33" s="5" t="n">
         <v>42.846</v>
       </c>
-      <c r="Q33" s="5" t="n">
+      <c r="R33" s="5" t="n">
         <v>-3.461</v>
       </c>
-      <c r="R33" s="5"/>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
-      <c r="AH33" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="V33" s="5"/>
       <c r="AI33" s="1" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="AJ33" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AK33" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>38</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J34" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34" s="7" t="n">
         <v>18.3</v>
       </c>
-      <c r="K34" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L34" s="7"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="7"/>
+      <c r="L34" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M34" s="7"/>
+      <c r="N34" s="6"/>
       <c r="O34" s="7"/>
-      <c r="P34" s="5" t="n">
+      <c r="P34" s="7"/>
+      <c r="Q34" s="5" t="n">
         <v>42.846</v>
       </c>
-      <c r="Q34" s="5" t="n">
+      <c r="R34" s="5" t="n">
         <v>-3.461</v>
       </c>
-      <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
-      <c r="AH34" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="V34" s="5"/>
       <c r="AI34" s="1" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="AJ34" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AK34" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>54</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J35" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="7" t="n">
         <v>19.1</v>
       </c>
-      <c r="K35" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L35" s="7" t="n">
+      <c r="L35" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M35" s="7" t="n">
         <v>26.6</v>
       </c>
-      <c r="M35" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N35" s="7" t="n">
+      <c r="N35" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O35" s="7" t="n">
         <v>-9</v>
       </c>
-      <c r="O35" s="7" t="n">
+      <c r="P35" s="7" t="n">
         <v>8.3</v>
       </c>
-      <c r="P35" s="5" t="n">
+      <c r="Q35" s="5" t="n">
         <v>42.763</v>
       </c>
-      <c r="Q35" s="5" t="n">
+      <c r="R35" s="5" t="n">
         <v>-3.231</v>
       </c>
-      <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
-      <c r="AH35" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="V35" s="5"/>
       <c r="AI35" s="1" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="AJ35" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AK35" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>65</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C36" s="5"/>
       <c r="D36" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J36" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K36" s="7" t="n">
         <v>19.4</v>
       </c>
-      <c r="K36" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L36" s="7" t="n">
+      <c r="L36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M36" s="7" t="n">
         <v>25.6</v>
       </c>
-      <c r="M36" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N36" s="7" t="n">
+      <c r="N36" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O36" s="7" t="n">
         <v>-9</v>
       </c>
-      <c r="O36" s="7" t="n">
+      <c r="P36" s="7" t="n">
         <v>12.6</v>
       </c>
-      <c r="P36" s="5" t="n">
+      <c r="Q36" s="5" t="n">
         <v>42.763</v>
       </c>
-      <c r="Q36" s="5" t="n">
+      <c r="R36" s="5" t="n">
         <v>-3.231</v>
       </c>
-      <c r="R36" s="5"/>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
-      <c r="AH36" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="V36" s="5"/>
       <c r="AI36" s="1" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="AJ36" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="AK36" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3215,18 +3280,19 @@
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="7"/>
+      <c r="J37" s="5"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
-      <c r="P37" s="5"/>
+      <c r="P37" s="7"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
@@ -3238,18 +3304,19 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
-      <c r="J38" s="7"/>
+      <c r="J38" s="5"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
-      <c r="P38" s="5"/>
+      <c r="P38" s="7"/>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
@@ -3261,18 +3328,19 @@
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="7"/>
+      <c r="J39" s="5"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
-      <c r="P39" s="5"/>
+      <c r="P39" s="7"/>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5"/>
@@ -3284,18 +3352,19 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="7"/>
+      <c r="J40" s="5"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
-      <c r="P40" s="5"/>
+      <c r="P40" s="7"/>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5"/>
@@ -3307,18 +3376,19 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="7"/>
+      <c r="J41" s="5"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
-      <c r="P41" s="5"/>
+      <c r="P41" s="7"/>
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
